--- a/PointsTiming/التجمع/Daily/تجمع يوم 12-8-2025.xlsx
+++ b/PointsTiming/التجمع/Daily/تجمع يوم 12-8-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1- اكتوبر وزايد" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="345">
   <si>
     <t>خط رقم 16 اكتوبر والشيخ زايد</t>
   </si>
@@ -621,6 +621,9 @@
     <t>دخول شيف5مساء</t>
   </si>
   <si>
+    <t>دخول شيف6مساء</t>
+  </si>
+  <si>
     <t>دخول شيف8 مساء</t>
   </si>
   <si>
@@ -748,9 +751,6 @@
   </si>
   <si>
     <t>دخول شيف2مساء</t>
-  </si>
-  <si>
-    <t>دخول شيف6مساء</t>
   </si>
   <si>
     <t>خط رقم 1 فيصل وترسا</t>
@@ -2605,7 +2605,7 @@
   <sheetPr/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3079,14 +3079,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -3286,7 +3286,9 @@
       <c r="A18" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>0.708333333333333</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -3313,13 +3315,15 @@
       <c r="A21" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" ht="15.5" spans="1:5">
-      <c r="A22" s="25"/>
+      <c r="A22" s="25" t="s">
+        <v>194</v>
+      </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -3333,7 +3337,7 @@
       <c r="E23" s="11"/>
     </row>
     <row r="24" ht="15.5" spans="1:5">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3346,8 +3350,8 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="11"/>
+    <row r="26" ht="15.5" spans="1:5">
+      <c r="A26" s="23"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -3394,6 +3398,13 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3482,7 +3493,7 @@
     </row>
     <row r="2" ht="18.5" spans="1:7">
       <c r="A2" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -3507,48 +3518,48 @@
     <row r="4" ht="15.75" customHeight="1" spans="1:7">
       <c r="A4" s="20"/>
       <c r="B4" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" ht="18.5" spans="1:7">
       <c r="A6" s="76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B6" s="77"/>
       <c r="C6" s="77"/>
@@ -3674,7 +3685,7 @@
     </row>
     <row r="14" ht="18.5" spans="1:7">
       <c r="A14" s="76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B14" s="77">
         <v>0.472222222222222</v>
@@ -3687,7 +3698,7 @@
     </row>
     <row r="15" ht="18.5" spans="1:8">
       <c r="A15" s="76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" s="77">
         <v>0.513888888888889</v>
@@ -3703,7 +3714,7 @@
     </row>
     <row r="16" ht="18.5" spans="1:7">
       <c r="A16" s="76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" s="77"/>
       <c r="C16" s="77"/>
@@ -3714,7 +3725,7 @@
     </row>
     <row r="17" ht="18.5" spans="1:7">
       <c r="A17" s="76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="77"/>
@@ -3729,7 +3740,7 @@
     </row>
     <row r="18" ht="18.5" spans="1:7">
       <c r="A18" s="76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B18" s="77">
         <v>0.638888888888889</v>
@@ -3746,7 +3757,7 @@
     </row>
     <row r="19" ht="18.5" spans="1:7">
       <c r="A19" s="76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
@@ -3815,7 +3826,7 @@
     </row>
     <row r="26" ht="18.5" spans="1:7">
       <c r="A26" s="76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B26" s="77"/>
       <c r="C26" s="77"/>
@@ -3980,7 +3991,7 @@
     </row>
     <row r="2" ht="18.5" spans="1:6">
       <c r="A2" s="71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -4003,37 +4014,37 @@
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="73"/>
       <c r="B4" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:6">
       <c r="A5" s="64"/>
       <c r="B5" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:6">
@@ -4492,7 +4503,7 @@
     </row>
     <row r="2" ht="18.5" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4509,25 +4520,25 @@
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:4">
       <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:4">
@@ -4613,7 +4624,7 @@
     </row>
     <row r="14" ht="15.5" spans="1:12">
       <c r="A14" s="23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -4651,7 +4662,7 @@
     </row>
     <row r="18" ht="15.5" spans="1:4">
       <c r="A18" s="23" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -5142,7 +5153,7 @@
     </row>
     <row r="16" ht="15.5" spans="1:12">
       <c r="A16" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" s="15">
         <v>0.548611111111111</v>
@@ -5160,7 +5171,7 @@
     </row>
     <row r="17" ht="15.5" spans="1:12">
       <c r="A17" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -6511,7 +6522,7 @@
     </row>
     <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
@@ -7464,7 +7475,7 @@
         <v>320</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
@@ -7479,7 +7490,7 @@
         <v>323</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
@@ -8355,13 +8366,13 @@
     <row r="4" ht="15.5" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>333</v>
@@ -8376,13 +8387,13 @@
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>333</v>
@@ -8568,7 +8579,7 @@
     </row>
     <row r="16" ht="15.5" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" s="7">
         <v>0.635416666666667</v>
@@ -8585,7 +8596,7 @@
     </row>
     <row r="17" ht="15.5" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="10">
         <v>0.677083333333333</v>
@@ -8648,7 +8659,7 @@
     </row>
     <row r="20" ht="15.5" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" s="7">
         <v>0.802083333333333</v>
@@ -8817,7 +8828,7 @@
         <v>344</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:4">
@@ -8829,7 +8840,7 @@
         <v>344</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" ht="15.5" spans="1:4">
@@ -8974,7 +8985,7 @@
     </row>
     <row r="16" ht="15.5" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B16" s="7">
         <v>0.635416666666667</v>
@@ -8988,7 +8999,7 @@
     </row>
     <row r="17" ht="15.5" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="10">
         <v>0.677083333333333</v>
@@ -9030,7 +9041,7 @@
     </row>
     <row r="20" ht="15.5" spans="1:4">
       <c r="A20" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B20" s="7">
         <v>0.802083333333333</v>
@@ -10456,7 +10467,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -10588,7 +10599,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
-        <v>0.354166666666667</v>
+        <v>0.340277777777778</v>
       </c>
     </row>
     <row r="11" ht="15.5" spans="1:6">
